--- a/documentacion.xlsx
+++ b/documentacion.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>API REST EXPRESS</t>
   </si>
@@ -45,12 +45,6 @@
     <t>router.get('/users/loginHistorial',userController.getLoginHistory)</t>
   </si>
   <si>
-    <t>router.get('/users/export/:id', userController.exportUserData);</t>
-  </si>
-  <si>
-    <t>router.get('/users/export', userController.exportUsersData);</t>
-  </si>
-  <si>
     <t>router.get('/Products',productController.getProducts)</t>
   </si>
   <si>
@@ -94,29 +88,142 @@
     <t>router.patch('/users/:id', userController.partialUpdateUser)</t>
   </si>
   <si>
-    <t>RUTAS USUARIOS</t>
-  </si>
-  <si>
-    <t>RUTAS PRODUCTOS</t>
-  </si>
-  <si>
-    <t>RUTAS COMPRAS</t>
-  </si>
-  <si>
-    <t>RUTAS DE LA API</t>
-  </si>
-  <si>
     <t>router.get('/compra',comprasController.getCompras);</t>
   </si>
   <si>
     <t>router.get('/compra',comprasController.getCompraById);</t>
+  </si>
+  <si>
+    <t>RUTAS DE LA API:                                                                                                                               Maneja las rutas usando la librería router de express</t>
+  </si>
+  <si>
+    <t xml:space="preserve">router.get('/compra/user/name',comprasController.getComprasByusername)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">router.get('/compra/user/:userId', comprasController.getComprasByUserId);
+</t>
+  </si>
+  <si>
+    <t>router.get('/compra/fecha', comprasController.getComprasByDate);</t>
+  </si>
+  <si>
+    <t>RUTAS USUARIOS ../routes/userRoutes.js</t>
+  </si>
+  <si>
+    <t>RUTAS PRODUCTOS   ../routes/productosRoutes.js</t>
+  </si>
+  <si>
+    <t>RUTAS COMPRAS  ../routes/comprasRoutes.js</t>
+  </si>
+  <si>
+    <t>CONTROLADOR FUNCIONES                                                                       Maneja las solicitudes y la logica de negocio</t>
+  </si>
+  <si>
+    <t>CONTROLLER USUARIOS ../controllers/userControllers.js</t>
+  </si>
+  <si>
+    <t>getAllUser() maneja la solicitud http para obtener todos los usuarios desde el modelo</t>
+  </si>
+  <si>
+    <t>getUserById() maneja la solicitud http para obtener por id desde el modelo</t>
+  </si>
+  <si>
+    <t>addUser() maneja la solicitud http para obtener los datos proporcionados y mandarlo al modelo para su insercion en la base de datos</t>
+  </si>
+  <si>
+    <t>updateUser() maneja la solicitud http para obtener los datos proporcionados y mandarlo al modelo para su actualizacion en la base de datos</t>
+  </si>
+  <si>
+    <t>deleteUser() maneja la solicitud http para obtener los datos proporcionados y mandarlo al modelo para su eliminacion en la base de datos</t>
+  </si>
+  <si>
+    <t>partialUpdateUser() maneja la solicitud y mandar al modelo para actualizar parcialmente en la base de datos</t>
+  </si>
+  <si>
+    <t>loginUser() maneja la solicitud http para procesar los datos proporcionados y validar y logearse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getUserPerfil() maneja la solicitud http para obtener el perfil del usuario del modelo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">getLoginHistory() maneja la solicitud para obetener del modelo el historial del login del usuario 
+</t>
+  </si>
+  <si>
+    <t>RUTAS EXPORTAR  ../routes/exportRoutes.js</t>
+  </si>
+  <si>
+    <t>router.get('/export/Excel/users',exportControllers.exportUsersData)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">router.get('/export/Excel/users/name',exportControllers.exportUsersDataByName)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">router.get('/export/Excel/users/:id', exportControllers.exportUserData);
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">router.get('/export/PDF/users', exportControllers.exportUserDataPdf)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">router.get('/export/PDF/users/:id', exportControllers.exportUserDataByIdPdf)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">router.get('/export/CSV/users',exportControllers.exportUserDataToCsv)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">router.get('/export/CSV/users/:id',exportControllers.exportUserDataToCsvByid)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">router.get('/export/JSON/users',exportControllers.exportUserDataToJson)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">router.post('/users/addMultipleUsers',userController.addMultipleUsers)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">router.post('/users/deleteMultipleUsers',userController.deleteMultipleUsers)
+</t>
+  </si>
+  <si>
+    <t>router.post('/users/requestPasswordReset',userController.requestPasswordReset)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">router.post('/users/resetPassword/:token',userController.resetPassword)
+</t>
+  </si>
+  <si>
+    <t>getUsersWithPagination() maneja la solicitud para obtener del modelo los usuarios con paginacion</t>
+  </si>
+  <si>
+    <t>addMultipleUsers()  maneja la solicitud para enviar los datos al modelo para su insercion</t>
+  </si>
+  <si>
+    <t>deleteMultipleUsers() maneja la solicitud para enviar los datos proporcionados al modelo para su eliminacion</t>
+  </si>
+  <si>
+    <t>requestPasswordReset() maneja la solicitud para solicitar el cambio de contraseña</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resetPassword() maneja la solicitud madan los datos al modelo para cambiar a la contraseña 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">searchUsers() maneja la solicitud http para pasar datos al modelo para su busqueda por parametros a la BD </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +242,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -207,26 +322,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -241,21 +360,60 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -537,238 +695,590 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J66"/>
+  <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="60" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="63.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="6" max="6" width="35.140625" customWidth="1"/>
     <col min="8" max="8" width="45.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="4"/>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="E5" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="4"/>
+    <row r="8" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="E8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
+    <row r="11" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
         <v>1</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="B11" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="E11" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="12" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+    </row>
+    <row r="13" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
         <v>2</v>
       </c>
-      <c r="C13" s="12"/>
+      <c r="B13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="E13" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="18">
         <v>3</v>
       </c>
-      <c r="C15" s="12"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
+      <c r="B15" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
         <v>4</v>
       </c>
-      <c r="C17" s="7"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
+      <c r="B17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="19" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
         <v>5</v>
       </c>
-      <c r="C19" s="7"/>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="7" t="s">
+      <c r="B19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="E19" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+    </row>
+    <row r="21" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
         <v>6</v>
       </c>
-      <c r="C21" s="7"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="7" t="s">
+      <c r="B21" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="E21" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+    </row>
+    <row r="23" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18">
         <v>7</v>
       </c>
-      <c r="C23" s="7"/>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="16"/>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="7"/>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="7" t="s">
+      <c r="B23" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="E23" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+    </row>
+    <row r="25" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="18">
+        <v>8</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="E25" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+    </row>
+    <row r="27" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="18">
+        <v>9</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="E27" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+    </row>
+    <row r="29" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="18">
         <v>10</v>
       </c>
-      <c r="C29" s="7"/>
-    </row>
-    <row r="31" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="E29" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+    </row>
+    <row r="31" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="18">
+        <v>11</v>
+      </c>
       <c r="B31" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="9"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="10" t="s">
+      <c r="C31" s="8"/>
+      <c r="E31" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+    </row>
+    <row r="33" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="18">
         <v>12</v>
       </c>
-      <c r="C33" s="11"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="7" t="s">
+      <c r="B33" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="E33" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+    </row>
+    <row r="35" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="18">
         <v>13</v>
       </c>
-      <c r="C35" s="7"/>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="3" t="s">
+      <c r="B35" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="30"/>
+      <c r="E35" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+    </row>
+    <row r="37" spans="1:7" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="18">
+        <v>14</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="32"/>
+      <c r="E37" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+    </row>
+    <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:7" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="18">
+        <v>15</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="21"/>
+      <c r="E39" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+    </row>
+    <row r="40" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="18">
+        <v>16</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="21"/>
+      <c r="E41" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+    </row>
+    <row r="42" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:7" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="18">
+        <v>17</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="21"/>
+      <c r="E43" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+    </row>
+    <row r="46" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="15"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="18">
+        <v>1</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="8"/>
+    </row>
+    <row r="50" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="18">
+        <v>2</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="8"/>
+    </row>
+    <row r="52" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="18">
+        <v>3</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="7"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="18">
+        <v>4</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" s="8"/>
+    </row>
+    <row r="61" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="29"/>
+    </row>
+    <row r="63" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="18">
+        <v>1</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" s="8"/>
+    </row>
+    <row r="64" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="18">
+        <v>2</v>
+      </c>
+      <c r="B65" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="3"/>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" s="3"/>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="4" t="s">
+      <c r="C65" s="8"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="18">
+        <v>3</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" s="8"/>
+    </row>
+    <row r="69" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="18">
+        <v>4</v>
+      </c>
+      <c r="B69" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="4"/>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="7" t="s">
+      <c r="C69" s="5"/>
+    </row>
+    <row r="70" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:5" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="18">
+        <v>5</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71" s="21"/>
+    </row>
+    <row r="72" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="18">
+        <v>6</v>
+      </c>
+      <c r="B73" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" s="23"/>
+      <c r="E73" s="22"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E74" s="22"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="18">
+        <v>7</v>
+      </c>
+      <c r="B75" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C75" s="21"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B79" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C79" s="29"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="18">
+        <v>1</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C82" s="8"/>
+    </row>
+    <row r="84" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="18">
+        <v>2</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C84" s="21"/>
+    </row>
+    <row r="86" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="18">
+        <v>3</v>
+      </c>
+      <c r="B86" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C86" s="21"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="18">
+        <v>4</v>
+      </c>
+      <c r="B88" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C88" s="21"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="18">
+        <v>5</v>
+      </c>
+      <c r="B90" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C90" s="21"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="18">
+        <v>6</v>
+      </c>
+      <c r="B92" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C92" s="21"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="18">
+        <v>7</v>
+      </c>
+      <c r="B94" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C94" s="21"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="18">
         <v>8</v>
       </c>
-      <c r="C46" s="7"/>
-    </row>
-    <row r="47" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="7"/>
-    </row>
-    <row r="49" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50" s="6"/>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C52" s="7"/>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C58" s="18"/>
-    </row>
-    <row r="60" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C60" s="7"/>
-    </row>
-    <row r="61" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C62" s="7"/>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C64" s="7"/>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C66" s="7"/>
+      <c r="B96" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C96" s="21"/>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="B62:C62"/>
+  <mergeCells count="68">
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="B65:C65"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B63:C63"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B49:C49"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B33:C33"/>
     <mergeCell ref="G2:J2"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B48:C48"/>
     <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B61:C61"/>
     <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B17:C17"/>
   </mergeCells>
